--- a/QuizCenter.xlsx
+++ b/QuizCenter.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="A3:F8"/>
@@ -548,6 +548,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Leenah</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hamdy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>lhamdy2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>UMass</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -559,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -725,6 +757,28 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>07/27/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lhamdy2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>90.0%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10/05/21</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1595,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>You can have multiple values returned by a python function</t>
+          <t>Sets do not include repeated elements</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1558,29 +1612,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lists are an immutable data type</t>
+          <t>You can have multiple values returned by a python function</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Python is dynamically typed</t>
+          <t>Lists are an immutable data type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1592,58 +1646,58 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>str(9+10) This line of code will not throw any errors when run</t>
+          <t>Functions in python are notated with the keyword "function"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Python allows for the use of the increment (++) and decrement (--) operators </t>
+          <t>Strings are an immutable data type</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sets do not include repeated elements</t>
+          <t>int('9 +10') This line of code will not throw any errors when run</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Functions in python are notated with the keyword "function"</t>
+          <t>Lists in python can only contain elements of the same data type</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1660,7 +1714,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Strings are an immutable data type</t>
+          <t>str(9+10) This line of code will not throw any errors when run</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1677,24 +1731,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lists in python can only contain elements of the same data type</t>
+          <t>Python is dynamically typed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>int('9 +10') This line of code will not throw any errors when run</t>
+          <t xml:space="preserve">Python allows for the use of the increment (++) and decrement (--) operators </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
